--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dean\source\repos\Sudoku\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE56FBD-8E7E-4B4C-9A9A-FCDC7ECC3EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B34F4-AF1C-4AFF-B794-EED1700E6B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62445" yWindow="-4680" windowWidth="17160" windowHeight="15165" activeTab="4" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
+    <workbookView xWindow="57480" yWindow="-4875" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Gentle" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="3" r:id="rId3"/>
     <sheet name="Moderate" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Samurai" sheetId="6" r:id="rId5"/>
+    <sheet name="Samurai (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Samurai (3)" sheetId="8" r:id="rId7"/>
+    <sheet name="Samurai (4)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +58,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -324,6 +334,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4DDFCC-8BE0-43DF-A983-4535C440BE5F}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1347,12 +1378,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="12"/>
+      <c r="A1" s="12">
+        <v>3</v>
+      </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="12"/>
+      <c r="D1" s="12">
+        <v>2</v>
+      </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="F1" s="14">
+        <v>4</v>
+      </c>
       <c r="G1" s="12"/>
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
@@ -1361,44 +1398,812 @@
       <c r="L1" s="21"/>
       <c r="M1" s="12"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="O1" s="14">
+        <v>4</v>
+      </c>
       <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="13">
+        <v>6</v>
+      </c>
       <c r="R1" s="14"/>
-      <c r="S1" s="12"/>
+      <c r="S1" s="12">
+        <v>7</v>
+      </c>
       <c r="T1" s="13"/>
       <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="15"/>
+      <c r="A2" s="15">
+        <v>6</v>
+      </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="15"/>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17">
+        <v>8</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17">
+        <v>2</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16">
+        <v>3</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16">
+        <v>1</v>
+      </c>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="18">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20">
+        <v>7</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="18">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20">
+        <v>3</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>1</v>
+      </c>
+      <c r="R3" s="20">
+        <v>8</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="12">
+        <v>4</v>
+      </c>
+      <c r="N4" s="13">
+        <v>9</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13">
+        <v>3</v>
+      </c>
+      <c r="U4" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17">
+        <v>6</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17">
+        <v>3</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="18">
+        <v>2</v>
+      </c>
+      <c r="N6" s="19">
+        <v>5</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19">
+        <v>9</v>
+      </c>
+      <c r="U6" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="12">
+        <v>7</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>3</v>
+      </c>
+      <c r="R7" s="14">
+        <v>2</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15">
+        <v>9</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15">
+        <v>7</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16">
+        <v>3</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17">
+        <v>5</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16">
+        <v>7</v>
+      </c>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20">
+        <v>3</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19">
+        <v>4</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19">
+        <v>2</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19">
+        <v>7</v>
+      </c>
+      <c r="R9" s="20"/>
+      <c r="S9" s="18">
+        <v>9</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14">
+        <v>3</v>
+      </c>
+      <c r="J10" s="12">
+        <v>4</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="12">
+        <v>6</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17">
+        <v>2</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20">
+        <v>7</v>
+      </c>
+      <c r="M12" s="18">
+        <v>8</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
+        <v>6</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13">
+        <v>5</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13">
+        <v>6</v>
+      </c>
+      <c r="R13" s="14"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15">
+        <v>5</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17">
+        <v>2</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16">
+        <v>9</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17">
+        <v>7</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16">
+        <v>3</v>
+      </c>
+      <c r="U14" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20">
+        <v>7</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20">
+        <v>6</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20">
+        <v>4</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="18">
+        <v>2</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20">
+        <v>3</v>
+      </c>
+      <c r="P15" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20">
+        <v>4</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>4</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="12">
+        <v>3</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14">
+        <v>7</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16">
+        <v>6</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="15">
+        <v>8</v>
+      </c>
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19">
+        <v>5</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19">
+        <v>7</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20">
+        <v>8</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12">
+        <v>7</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="12">
+        <v>6</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14">
+        <v>3</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="15">
+        <v>8</v>
+      </c>
+      <c r="N20" s="16">
+        <v>3</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16">
+        <v>6</v>
+      </c>
+      <c r="U20" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="18">
+        <v>3</v>
+      </c>
+      <c r="B21" s="19">
+        <v>9</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18">
+        <v>6</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19">
+        <v>2</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74338F7F-2F65-47ED-AB36-D586C73E474A}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="21" width="3.46484375" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="12">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="12">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13">
+        <v>8</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13">
+        <v>3</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14">
+        <v>2</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13">
+        <v>1</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="12">
+        <v>4</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="15">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="17">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="15"/>
+      <c r="M2" s="15">
+        <v>3</v>
+      </c>
       <c r="N2" s="16"/>
       <c r="O2" s="17"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="17"/>
       <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="17"/>
+      <c r="T2" s="16">
+        <v>2</v>
+      </c>
+      <c r="U2" s="17">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
+      <c r="D3" s="18">
+        <v>6</v>
+      </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="F3" s="20">
+        <v>4</v>
+      </c>
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
       <c r="I3" s="20"/>
@@ -1406,37 +2211,55 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
+      <c r="N3" s="19">
+        <v>5</v>
+      </c>
       <c r="O3" s="20"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="20"/>
       <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="T3" s="19">
+        <v>6</v>
+      </c>
       <c r="U3" s="20"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12">
+        <v>7</v>
+      </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="14">
+        <v>8</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="12"/>
+      <c r="M4" s="12">
+        <v>6</v>
+      </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="R4" s="14">
+        <v>7</v>
+      </c>
       <c r="S4" s="12"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="14"/>
+      <c r="U4" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="15"/>
@@ -1445,8 +2268,12 @@
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7</v>
+      </c>
       <c r="I5" s="17"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -1456,64 +2283,102 @@
       <c r="O5" s="17"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="17">
+        <v>3</v>
+      </c>
       <c r="S5" s="15"/>
       <c r="T5" s="16"/>
       <c r="U5" s="17"/>
     </row>
     <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
       <c r="C6" s="20"/>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="20">
+        <v>5</v>
+      </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="18"/>
       <c r="N6" s="19"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>6</v>
+      </c>
       <c r="R6" s="20"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="T6" s="19">
+        <v>5</v>
+      </c>
       <c r="U6" s="20"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13">
+        <v>7</v>
+      </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14">
+        <v>8</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
       <c r="L7" s="14"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
       <c r="O7" s="14"/>
-      <c r="P7" s="12"/>
+      <c r="P7" s="12">
+        <v>5</v>
+      </c>
       <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="12"/>
+      <c r="R7" s="14">
+        <v>4</v>
+      </c>
+      <c r="S7" s="12">
+        <v>9</v>
+      </c>
       <c r="T7" s="13"/>
-      <c r="U7" s="14"/>
+      <c r="U7" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17">
+        <v>9</v>
+      </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
@@ -1526,27 +2391,41 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="15">
+        <v>2</v>
+      </c>
       <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="17">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="19">
+        <v>4</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="20">
+        <v>9</v>
+      </c>
       <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="N9" s="19">
+        <v>3</v>
+      </c>
       <c r="O9" s="20"/>
-      <c r="P9" s="18"/>
+      <c r="P9" s="18">
+        <v>9</v>
+      </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="20"/>
       <c r="S9" s="18"/>
@@ -1562,13 +2441,21 @@
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="I10" s="14">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3</v>
+      </c>
+      <c r="K10" s="13">
+        <v>7</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="O10" s="14">
+        <v>9</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1586,8 +2473,12 @@
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="15">
+        <v>9</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2</v>
+      </c>
       <c r="L11" s="17"/>
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
@@ -1608,13 +2499,17 @@
       <c r="F12" s="21"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20">
+        <v>5</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
       <c r="M12" s="18"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="20">
+        <v>1</v>
+      </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -1626,22 +2521,36 @@
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>4</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="13">
+        <v>8</v>
+      </c>
       <c r="L13" s="14"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="12">
+        <v>3</v>
+      </c>
       <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="12"/>
+      <c r="O13" s="14">
+        <v>2</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
       <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="12"/>
+      <c r="R13" s="14">
+        <v>4</v>
+      </c>
+      <c r="S13" s="12">
+        <v>7</v>
+      </c>
       <c r="T13" s="13"/>
       <c r="U13" s="14"/>
     </row>
@@ -1649,53 +2558,87 @@
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5</v>
+      </c>
+      <c r="F14" s="17">
+        <v>9</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="17">
+        <v>6</v>
+      </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
+      <c r="K14" s="22">
+        <v>3</v>
+      </c>
+      <c r="L14" s="17">
+        <v>7</v>
+      </c>
+      <c r="M14" s="15">
+        <v>9</v>
+      </c>
+      <c r="N14" s="16">
+        <v>5</v>
+      </c>
       <c r="O14" s="17"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
+      <c r="T14" s="16">
+        <v>6</v>
+      </c>
       <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>4</v>
+      </c>
       <c r="C15" s="20"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>5</v>
+      </c>
       <c r="I15" s="20"/>
-      <c r="J15" s="18"/>
+      <c r="J15" s="18">
+        <v>6</v>
+      </c>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19"/>
       <c r="O15" s="20"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="19">
+        <v>6</v>
+      </c>
       <c r="R15" s="20"/>
       <c r="S15" s="18"/>
       <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
+      <c r="U15" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
@@ -1704,7 +2647,9 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="12">
+        <v>2</v>
+      </c>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
       <c r="P16" s="12"/>
@@ -1712,7 +2657,9 @@
       <c r="R16" s="14"/>
       <c r="S16" s="12"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
+      <c r="U16" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
@@ -1720,32 +2667,50 @@
       <c r="C17" s="17"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="15">
+        <v>7</v>
+      </c>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
+      <c r="N17" s="16">
+        <v>9</v>
+      </c>
+      <c r="O17" s="17">
+        <v>5</v>
+      </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="17"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
+      <c r="T17" s="16">
+        <v>4</v>
+      </c>
+      <c r="U17" s="17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="18"/>
+      <c r="A18" s="18">
+        <v>8</v>
+      </c>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18">
+        <v>9</v>
+      </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -1756,28 +2721,42 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="20"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="19"/>
+      <c r="S18" s="18">
+        <v>2</v>
+      </c>
+      <c r="T18" s="19">
+        <v>5</v>
+      </c>
       <c r="U18" s="20"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14">
+        <v>7</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="13">
+        <v>6</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2</v>
+      </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="12">
+        <v>5</v>
+      </c>
       <c r="N19" s="13"/>
       <c r="O19" s="14"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="13">
+        <v>2</v>
+      </c>
       <c r="R19" s="14"/>
       <c r="S19" s="12"/>
       <c r="T19" s="13"/>
@@ -1785,51 +2764,1593 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="17">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15">
+        <v>9</v>
+      </c>
+      <c r="H20" s="16">
+        <v>8</v>
+      </c>
       <c r="I20" s="17"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="16">
+        <v>2</v>
+      </c>
       <c r="O20" s="17"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="16"/>
+      <c r="R20" s="17">
+        <v>8</v>
+      </c>
+      <c r="S20" s="15">
+        <v>4</v>
+      </c>
+      <c r="T20" s="16">
+        <v>9</v>
+      </c>
       <c r="U20" s="17"/>
     </row>
     <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="18"/>
+      <c r="A21" s="18">
+        <v>9</v>
+      </c>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20">
+        <v>4</v>
+      </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
+      <c r="N21" s="19">
+        <v>1</v>
+      </c>
       <c r="O21" s="20"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
+      <c r="Q21" s="19">
+        <v>9</v>
+      </c>
+      <c r="R21" s="20">
+        <v>3</v>
+      </c>
       <c r="S21" s="18"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="20"/>
+      <c r="U21" s="20">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070A5029-39A2-4171-9EF0-A47FF0ED7A24}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="21" width="3.46484375" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25">
+        <v>9</v>
+      </c>
+      <c r="D1" s="23">
+        <v>1</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="23">
+        <v>6</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24">
+        <v>4</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25">
+        <v>9</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="27">
+        <v>7</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29">
+        <v>9</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28">
+        <v>4</v>
+      </c>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31">
+        <v>4</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30">
+        <v>9</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32">
+        <v>5</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31">
+        <v>3</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23">
+        <v>4</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25">
+        <v>9</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="23">
+        <v>2</v>
+      </c>
+      <c r="N4" s="24">
+        <v>6</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25">
+        <v>1</v>
+      </c>
+      <c r="S4" s="23">
+        <v>7</v>
+      </c>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>3</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27">
+        <v>8</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="27">
+        <v>3</v>
+      </c>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="30">
+        <v>9</v>
+      </c>
+      <c r="B6" s="31">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31">
+        <v>2</v>
+      </c>
+      <c r="F6" s="32">
+        <v>8</v>
+      </c>
+      <c r="G6" s="30">
+        <v>4</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31">
+        <v>9</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31">
+        <v>8</v>
+      </c>
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23">
+        <v>5</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25">
+        <v>6</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25">
+        <v>7</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24">
+        <v>8</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="27">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29">
+        <v>7</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="33">
+        <v>9</v>
+      </c>
+      <c r="F8" s="29">
+        <v>6</v>
+      </c>
+      <c r="G8" s="27">
+        <v>8</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="27">
+        <v>4</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29">
+        <v>6</v>
+      </c>
+      <c r="P8" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>2</v>
+      </c>
+      <c r="R8" s="29"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31">
+        <v>8</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32">
+        <v>4</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32">
+        <v>5</v>
+      </c>
+      <c r="M9" s="30">
+        <v>3</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32">
+        <v>5</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="23">
+        <v>8</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25">
+        <v>9</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28">
+        <v>7</v>
+      </c>
+      <c r="L11" s="29">
+        <v>3</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29">
+        <v>8</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31">
+        <v>6</v>
+      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23">
+        <v>4</v>
+      </c>
+      <c r="E13" s="24">
+        <v>9</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="24">
+        <v>3</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24">
+        <v>9</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="34">
+        <v>8</v>
+      </c>
+      <c r="N13" s="24">
+        <v>4</v>
+      </c>
+      <c r="O13" s="25">
+        <v>5</v>
+      </c>
+      <c r="P13" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>6</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24">
+        <v>2</v>
+      </c>
+      <c r="U13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28">
+        <v>5</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="33">
+        <v>8</v>
+      </c>
+      <c r="L14" s="29">
+        <v>6</v>
+      </c>
+      <c r="M14" s="35">
+        <v>2</v>
+      </c>
+      <c r="N14" s="36">
+        <v>9</v>
+      </c>
+      <c r="O14" s="37">
+        <v>3</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29">
+        <v>5</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30">
+        <v>9</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="30">
+        <v>3</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="41">
+        <v>6</v>
+      </c>
+      <c r="N15" s="39">
+        <v>7</v>
+      </c>
+      <c r="O15" s="40">
+        <v>1</v>
+      </c>
+      <c r="P15" s="30">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>9</v>
+      </c>
+      <c r="R15" s="32">
+        <v>2</v>
+      </c>
+      <c r="S15" s="30"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="23">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23">
+        <v>8</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="23">
+        <v>5</v>
+      </c>
+      <c r="H16" s="24">
+        <v>7</v>
+      </c>
+      <c r="I16" s="25">
+        <v>3</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24">
+        <v>1</v>
+      </c>
+      <c r="R16" s="25"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28">
+        <v>6</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="28">
+        <v>7</v>
+      </c>
+      <c r="U17" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="30">
+        <v>8</v>
+      </c>
+      <c r="B18" s="31">
+        <v>3</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31">
+        <v>4</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
+        <v>9</v>
+      </c>
+      <c r="I18" s="32">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="32">
+        <v>9</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="30">
+        <v>6</v>
+      </c>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <v>7</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25">
+        <v>4</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="23">
+        <v>9</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24">
+        <v>5</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28">
+        <v>8</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <v>5</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27">
+        <v>4</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>3</v>
+      </c>
+      <c r="R20" s="29"/>
+      <c r="S20" s="27">
+        <v>5</v>
+      </c>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="30">
+        <v>2</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32">
+        <v>2</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32">
+        <v>6</v>
+      </c>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D440AA-EBC6-4059-A3EA-315E48455F03}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="21" width="3.46484375" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="42"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23">
+        <v>4</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23">
+        <v>1</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="23">
+        <v>8</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25">
+        <v>3</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29">
+        <v>9</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27">
+        <v>4</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29">
+        <v>3</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="27">
+        <v>1</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31">
+        <v>4</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31">
+        <v>7</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31">
+        <v>6</v>
+      </c>
+      <c r="U3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="23">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24">
+        <v>3</v>
+      </c>
+      <c r="I4" s="25">
+        <v>8</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="23">
+        <v>3</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25">
+        <v>1</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29">
+        <v>6</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28">
+        <v>2</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27">
+        <v>1</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32">
+        <v>5</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="30">
+        <v>6</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32">
+        <v>8</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24">
+        <v>5</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="23">
+        <v>6</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24">
+        <v>3</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24">
+        <v>5</v>
+      </c>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="33">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28">
+        <v>9</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29">
+        <v>2</v>
+      </c>
+      <c r="M8" s="27">
+        <v>7</v>
+      </c>
+      <c r="N8" s="28">
+        <v>6</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="27">
+        <v>9</v>
+      </c>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>7</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31">
+        <v>4</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="30">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32">
+        <v>6</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23">
+        <v>5</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23">
+        <v>1</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25">
+        <v>9</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25">
+        <v>3</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28">
+        <v>2</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="30">
+        <v>6</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30">
+        <v>5</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32">
+        <v>8</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32">
+        <v>1</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>2</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24">
+        <v>6</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25">
+        <v>6</v>
+      </c>
+      <c r="S13" s="23">
+        <v>7</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29">
+        <v>6</v>
+      </c>
+      <c r="D14" s="27">
+        <v>5</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29">
+        <v>7</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28">
+        <v>3</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2</v>
+      </c>
+      <c r="J14" s="27">
+        <v>9</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28">
+        <v>7</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29">
+        <v>2</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28">
+        <v>5</v>
+      </c>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32">
+        <v>3</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31">
+        <v>6</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30">
+        <v>2</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32">
+        <v>4</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31">
+        <v>8</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="23">
+        <v>4</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23">
+        <v>8</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25">
+        <v>6</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25">
+        <v>3</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24">
+        <v>4</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25">
+        <v>9</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24">
+        <v>7</v>
+      </c>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28">
+        <v>7</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28">
+        <v>8</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28">
+        <v>2</v>
+      </c>
+      <c r="R17" s="29"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29"/>
+    </row>
+    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="30">
+        <v>8</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="30">
+        <v>4</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32">
+        <v>3</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32">
+        <v>7</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31">
+        <v>5</v>
+      </c>
+      <c r="O18" s="32"/>
+      <c r="P18" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32">
+        <v>1</v>
+      </c>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31">
+        <v>6</v>
+      </c>
+      <c r="U18" s="32"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="23">
+        <v>8</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="23">
+        <v>1</v>
+      </c>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29">
+        <v>8</v>
+      </c>
+      <c r="D20" s="27">
+        <v>9</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29">
+        <v>2</v>
+      </c>
+      <c r="G20" s="27">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28">
+        <v>6</v>
+      </c>
+      <c r="O20" s="29"/>
+      <c r="P20" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29">
+        <v>7</v>
+      </c>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28">
+        <v>3</v>
+      </c>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31">
+        <v>7</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31">
+        <v>4</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31">
+        <v>9</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32">
+        <v>1</v>
+      </c>
+      <c r="P21" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32">
+        <v>4</v>
+      </c>
+      <c r="S21" s="30">
+        <v>6</v>
+      </c>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dean\source\repos\Sudoku\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B34F4-AF1C-4AFF-B794-EED1700E6B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5416359-F523-456D-A881-942FA3B12D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-4875" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
+    <workbookView xWindow="58095" yWindow="-4680" windowWidth="24105" windowHeight="14520" firstSheet="1" activeTab="7" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Gentle" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="3" r:id="rId3"/>
     <sheet name="Moderate" sheetId="5" r:id="rId4"/>
-    <sheet name="Samurai" sheetId="6" r:id="rId5"/>
-    <sheet name="Samurai (2)" sheetId="7" r:id="rId6"/>
-    <sheet name="Samurai (3)" sheetId="8" r:id="rId7"/>
+    <sheet name="Moderate (2)" sheetId="10" r:id="rId5"/>
+    <sheet name="Samurai" sheetId="6" r:id="rId6"/>
+    <sheet name="Samurai (2)" sheetId="7" r:id="rId7"/>
     <sheet name="Samurai (4)" sheetId="9" r:id="rId8"/>
+    <sheet name="Samurai (5)" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -311,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -346,14 +347,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,6 +1357,174 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2809CD0-9D82-4A96-BF8D-86CC9DBAF4F9}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection sqref="A1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="9" width="3.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="2">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4DDFCC-8BE0-43DF-A983-4535C440BE5F}">
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -2105,8 +2266,1507 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74338F7F-2F65-47ED-AB36-D586C73E474A}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCellId="1" sqref="A21:T21 A1:U20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="21" width="3.46484375" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="12">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="12">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13">
+        <v>8</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13">
+        <v>3</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14">
+        <v>2</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13">
+        <v>1</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="12">
+        <v>4</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="15">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="15">
+        <v>3</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16">
+        <v>2</v>
+      </c>
+      <c r="U2" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18">
+        <v>6</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19">
+        <v>5</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19">
+        <v>6</v>
+      </c>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="12">
+        <v>6</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14">
+        <v>7</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17">
+        <v>3</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20">
+        <v>5</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>6</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19">
+        <v>5</v>
+      </c>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13">
+        <v>7</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14">
+        <v>8</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14">
+        <v>4</v>
+      </c>
+      <c r="S7" s="12">
+        <v>9</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17">
+        <v>9</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="15">
+        <v>2</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
+        <v>4</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20">
+        <v>9</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19">
+        <v>3</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3</v>
+      </c>
+      <c r="K10" s="13">
+        <v>7</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14">
+        <v>9</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="15">
+        <v>9</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20">
+        <v>5</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20">
+        <v>1</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13">
+        <v>8</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="12">
+        <v>3</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14">
+        <v>2</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14">
+        <v>4</v>
+      </c>
+      <c r="S13" s="12">
+        <v>7</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5</v>
+      </c>
+      <c r="F14" s="17">
+        <v>9</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17">
+        <v>6</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="22">
+        <v>3</v>
+      </c>
+      <c r="L14" s="17">
+        <v>7</v>
+      </c>
+      <c r="M14" s="15">
+        <v>9</v>
+      </c>
+      <c r="N14" s="16">
+        <v>5</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16">
+        <v>6</v>
+      </c>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19">
+        <v>5</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18">
+        <v>6</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19">
+        <v>6</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="12">
+        <v>2</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="15">
+        <v>7</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16">
+        <v>9</v>
+      </c>
+      <c r="O17" s="17">
+        <v>5</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16">
+        <v>4</v>
+      </c>
+      <c r="U17" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18">
+        <v>9</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="18">
+        <v>2</v>
+      </c>
+      <c r="T18" s="19">
+        <v>5</v>
+      </c>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13">
+        <v>6</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="12">
+        <v>5</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="13">
+        <v>2</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15">
+        <v>9</v>
+      </c>
+      <c r="H20" s="16">
+        <v>8</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16">
+        <v>2</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17">
+        <v>8</v>
+      </c>
+      <c r="S20" s="15">
+        <v>4</v>
+      </c>
+      <c r="T20" s="16">
+        <v>9</v>
+      </c>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="18">
+        <v>9</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20">
+        <v>4</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19">
+        <v>1</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19">
+        <v>9</v>
+      </c>
+      <c r="R21" s="20">
+        <v>3</v>
+      </c>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D440AA-EBC6-4059-A3EA-315E48455F03}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="21" width="3.46484375" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="34"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23">
+        <v>4</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23">
+        <v>1</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="23">
+        <v>8</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25">
+        <v>3</v>
+      </c>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29">
+        <v>9</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27">
+        <v>4</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29">
+        <v>3</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="27">
+        <v>1</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31">
+        <v>4</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31">
+        <v>7</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31">
+        <v>6</v>
+      </c>
+      <c r="U3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="23">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24">
+        <v>3</v>
+      </c>
+      <c r="I4" s="25">
+        <v>8</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="23">
+        <v>3</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25">
+        <v>1</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29">
+        <v>6</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28">
+        <v>2</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27">
+        <v>1</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32">
+        <v>5</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="30">
+        <v>6</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32">
+        <v>8</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24">
+        <v>5</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="23">
+        <v>6</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24">
+        <v>3</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24">
+        <v>5</v>
+      </c>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="33">
+        <v>4</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28">
+        <v>9</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29">
+        <v>2</v>
+      </c>
+      <c r="M8" s="27">
+        <v>7</v>
+      </c>
+      <c r="N8" s="28">
+        <v>6</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="27">
+        <v>9</v>
+      </c>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>7</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31">
+        <v>4</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="30">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32">
+        <v>6</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23">
+        <v>5</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23">
+        <v>1</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25">
+        <v>9</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25">
+        <v>3</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28">
+        <v>2</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="30">
+        <v>6</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30">
+        <v>5</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32">
+        <v>8</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32">
+        <v>1</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>2</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24">
+        <v>6</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25">
+        <v>6</v>
+      </c>
+      <c r="S13" s="23">
+        <v>7</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29">
+        <v>6</v>
+      </c>
+      <c r="D14" s="27">
+        <v>5</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29">
+        <v>7</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28">
+        <v>3</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2</v>
+      </c>
+      <c r="J14" s="27">
+        <v>9</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28">
+        <v>7</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29">
+        <v>2</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28">
+        <v>5</v>
+      </c>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32">
+        <v>3</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31">
+        <v>6</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30">
+        <v>2</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32">
+        <v>4</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31">
+        <v>8</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="23">
+        <v>4</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23">
+        <v>8</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25">
+        <v>6</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25">
+        <v>3</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24">
+        <v>4</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25">
+        <v>9</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24">
+        <v>7</v>
+      </c>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28">
+        <v>7</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28">
+        <v>8</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28">
+        <v>2</v>
+      </c>
+      <c r="R17" s="29"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29"/>
+    </row>
+    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="30">
+        <v>8</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="30">
+        <v>4</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32">
+        <v>3</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32">
+        <v>7</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31">
+        <v>5</v>
+      </c>
+      <c r="O18" s="32"/>
+      <c r="P18" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32">
+        <v>1</v>
+      </c>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31">
+        <v>6</v>
+      </c>
+      <c r="U18" s="32"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="23">
+        <v>8</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="23">
+        <v>1</v>
+      </c>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29">
+        <v>8</v>
+      </c>
+      <c r="D20" s="27">
+        <v>9</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29">
+        <v>2</v>
+      </c>
+      <c r="G20" s="27">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28">
+        <v>6</v>
+      </c>
+      <c r="O20" s="29"/>
+      <c r="P20" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29">
+        <v>7</v>
+      </c>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28">
+        <v>3</v>
+      </c>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31">
+        <v>7</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31">
+        <v>4</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31">
+        <v>9</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32">
+        <v>1</v>
+      </c>
+      <c r="P21" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32">
+        <v>4</v>
+      </c>
+      <c r="S21" s="30">
+        <v>6</v>
+      </c>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E47FC41-CF0C-454F-898B-115A595072CA}">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2120,759 +3780,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="12">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12">
-        <v>9</v>
-      </c>
-      <c r="E1" s="13">
-        <v>8</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13">
-        <v>3</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14">
-        <v>2</v>
-      </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13">
-        <v>1</v>
-      </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="12">
-        <v>4</v>
-      </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="15">
-        <v>3</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17">
-        <v>2</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15">
-        <v>6</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="15">
-        <v>3</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16">
-        <v>2</v>
-      </c>
-      <c r="U2" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18">
-        <v>6</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20">
-        <v>4</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19">
-        <v>5</v>
-      </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19">
-        <v>6</v>
-      </c>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="12">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13">
-        <v>2</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="12">
-        <v>6</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14">
-        <v>7</v>
-      </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16">
-        <v>7</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17">
-        <v>3</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20">
-        <v>5</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="18">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>6</v>
-      </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19">
-        <v>5</v>
-      </c>
-      <c r="U6" s="20"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13">
-        <v>7</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12">
-        <v>4</v>
-      </c>
-      <c r="H7" s="13">
-        <v>9</v>
-      </c>
-      <c r="I7" s="14">
-        <v>8</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14">
-        <v>4</v>
-      </c>
-      <c r="S7" s="12">
-        <v>9</v>
-      </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15">
-        <v>5</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17">
-        <v>9</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="15">
-        <v>2</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
-        <v>4</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20">
-        <v>9</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19">
-        <v>3</v>
-      </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="18">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14">
-        <v>4</v>
-      </c>
-      <c r="J10" s="12">
-        <v>3</v>
-      </c>
-      <c r="K10" s="13">
-        <v>7</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14">
-        <v>9</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15">
-        <v>9</v>
-      </c>
-      <c r="K11" s="16">
-        <v>2</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20">
-        <v>5</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20">
-        <v>1</v>
-      </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13">
-        <v>8</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="12">
-        <v>3</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14">
-        <v>2</v>
-      </c>
-      <c r="P13" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14">
-        <v>4</v>
-      </c>
-      <c r="S13" s="12">
-        <v>7</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17">
-        <v>9</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17">
-        <v>6</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="22">
-        <v>3</v>
-      </c>
-      <c r="L14" s="17">
-        <v>7</v>
-      </c>
-      <c r="M14" s="15">
-        <v>9</v>
-      </c>
-      <c r="N14" s="16">
-        <v>5</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16">
-        <v>6</v>
-      </c>
-      <c r="U14" s="17"/>
-    </row>
-    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19">
-        <v>4</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19">
-        <v>5</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18">
-        <v>6</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19">
-        <v>6</v>
-      </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="12">
-        <v>3</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="12">
-        <v>2</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17">
-        <v>6</v>
-      </c>
-      <c r="G17" s="15">
-        <v>7</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16">
-        <v>9</v>
-      </c>
-      <c r="O17" s="17">
-        <v>5</v>
-      </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16">
-        <v>4</v>
-      </c>
-      <c r="U17" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="18">
-        <v>8</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18">
-        <v>9</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19">
-        <v>2</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="18">
-        <v>2</v>
-      </c>
-      <c r="T18" s="19">
-        <v>5</v>
-      </c>
-      <c r="U18" s="20"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14">
-        <v>7</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13">
-        <v>6</v>
-      </c>
-      <c r="I19" s="14">
-        <v>2</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="12">
-        <v>5</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13">
-        <v>2</v>
-      </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="14"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17">
-        <v>4</v>
-      </c>
-      <c r="G20" s="15">
-        <v>9</v>
-      </c>
-      <c r="H20" s="16">
-        <v>8</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16">
-        <v>2</v>
-      </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17">
-        <v>8</v>
-      </c>
-      <c r="S20" s="15">
-        <v>4</v>
-      </c>
-      <c r="T20" s="16">
-        <v>9</v>
-      </c>
-      <c r="U20" s="17"/>
-    </row>
-    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="18">
-        <v>9</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
-        <v>4</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19">
-        <v>1</v>
-      </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19">
-        <v>9</v>
-      </c>
-      <c r="R21" s="20">
-        <v>3</v>
-      </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="20">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070A5029-39A2-4171-9EF0-A47FF0ED7A24}">
-  <dimension ref="A1:U21"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:U21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="21" width="3.46484375" customWidth="1"/>
-    <col min="22" max="22" width="7.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="23"/>
+      <c r="A1" s="34"/>
       <c r="B1" s="24"/>
-      <c r="C1" s="25">
-        <v>9</v>
-      </c>
+      <c r="C1" s="25"/>
       <c r="D1" s="23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="23">
-        <v>6</v>
-      </c>
+      <c r="F1" s="25">
+        <v>2</v>
+      </c>
+      <c r="G1" s="23"/>
       <c r="H1" s="24"/>
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
@@ -2880,28 +3798,30 @@
       <c r="L1" s="26"/>
       <c r="M1" s="23"/>
       <c r="N1" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O1" s="25"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25">
-        <v>9</v>
-      </c>
+      <c r="P1" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="24">
+        <v>6</v>
+      </c>
+      <c r="R1" s="25"/>
       <c r="S1" s="23"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25">
-        <v>1</v>
-      </c>
+      <c r="T1" s="24">
+        <v>9</v>
+      </c>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="27">
-        <v>7</v>
-      </c>
+      <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="E2" s="28">
+        <v>3</v>
+      </c>
       <c r="F2" s="29"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
@@ -2912,230 +3832,228 @@
       <c r="M2" s="27"/>
       <c r="N2" s="28"/>
       <c r="O2" s="29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="28"/>
       <c r="R2" s="29"/>
       <c r="S2" s="27"/>
-      <c r="T2" s="28">
-        <v>4</v>
-      </c>
+      <c r="T2" s="28"/>
       <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="C3" s="32">
+        <v>8</v>
+      </c>
       <c r="D3" s="30"/>
-      <c r="E3" s="31">
-        <v>4</v>
-      </c>
+      <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31">
-        <v>3</v>
-      </c>
+      <c r="M3" s="30">
+        <v>7</v>
+      </c>
+      <c r="N3" s="31"/>
       <c r="O3" s="32"/>
-      <c r="P3" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="31"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31">
+        <v>3</v>
+      </c>
       <c r="R3" s="32"/>
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
       <c r="U3" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>4</v>
+      </c>
       <c r="C4" s="25"/>
-      <c r="D4" s="23">
-        <v>4</v>
-      </c>
+      <c r="D4" s="23"/>
       <c r="E4" s="24"/>
       <c r="F4" s="25"/>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="23">
-        <v>2</v>
-      </c>
+      <c r="M4" s="23"/>
       <c r="N4" s="24">
         <v>6</v>
       </c>
       <c r="O4" s="25"/>
-      <c r="P4" s="23"/>
+      <c r="P4" s="23">
+        <v>1</v>
+      </c>
       <c r="Q4" s="24"/>
       <c r="R4" s="25">
-        <v>1</v>
-      </c>
-      <c r="S4" s="23">
-        <v>7</v>
-      </c>
-      <c r="T4" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24">
+        <v>2</v>
+      </c>
       <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="27"/>
       <c r="B5" s="28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="29"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28">
-        <v>3</v>
-      </c>
-      <c r="F5" s="29"/>
+      <c r="D5" s="27">
+        <v>7</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29">
+        <v>3</v>
+      </c>
       <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="28">
+        <v>4</v>
+      </c>
       <c r="I5" s="29"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="27">
-        <v>8</v>
-      </c>
-      <c r="N5" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="28">
+        <v>8</v>
+      </c>
       <c r="O5" s="29"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="28"/>
       <c r="R5" s="29"/>
-      <c r="S5" s="27">
-        <v>3</v>
-      </c>
-      <c r="T5" s="28"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28">
+        <v>3</v>
+      </c>
       <c r="U5" s="29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="30">
-        <v>9</v>
-      </c>
-      <c r="B6" s="31">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="30"/>
-      <c r="E6" s="31">
-        <v>2</v>
-      </c>
-      <c r="F6" s="32">
-        <v>8</v>
-      </c>
-      <c r="G6" s="30">
-        <v>4</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31">
+        <v>3</v>
+      </c>
+      <c r="I6" s="32">
+        <v>9</v>
+      </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
       <c r="O6" s="32"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31">
-        <v>9</v>
-      </c>
-      <c r="R6" s="32"/>
+      <c r="P6" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32">
+        <v>5</v>
+      </c>
       <c r="S6" s="30"/>
       <c r="T6" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6" s="32"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="23">
-        <v>5</v>
-      </c>
+      <c r="G7" s="23"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="25">
-        <v>6</v>
-      </c>
+      <c r="I7" s="25"/>
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="23"/>
       <c r="N7" s="24"/>
-      <c r="O7" s="25">
-        <v>7</v>
-      </c>
+      <c r="O7" s="25"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R7" s="25"/>
       <c r="S7" s="23"/>
       <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
+      <c r="U7" s="25">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="27">
-        <v>4</v>
-      </c>
+      <c r="A8" s="27"/>
       <c r="B8" s="28"/>
-      <c r="C8" s="29">
-        <v>7</v>
-      </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="27"/>
       <c r="E8" s="33">
-        <v>9</v>
-      </c>
-      <c r="F8" s="29">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="27">
-        <v>8</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="27">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="28">
+        <v>6</v>
+      </c>
+      <c r="I8" s="29">
+        <v>7</v>
+      </c>
+      <c r="J8" s="27"/>
       <c r="K8" s="28"/>
       <c r="L8" s="29"/>
       <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29">
-        <v>6</v>
-      </c>
-      <c r="P8" s="27">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="28">
-        <v>2</v>
-      </c>
+      <c r="N8" s="28">
+        <v>5</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="29"/>
-      <c r="S8" s="27"/>
+      <c r="S8" s="27">
+        <v>8</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="29"/>
     </row>
@@ -3143,37 +4061,41 @@
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31">
-        <v>8</v>
-      </c>
-      <c r="F9" s="32"/>
+      <c r="D9" s="30">
+        <v>4</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
       <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32">
-        <v>4</v>
-      </c>
+      <c r="H9" s="31">
+        <v>9</v>
+      </c>
+      <c r="I9" s="32"/>
       <c r="J9" s="30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="32">
-        <v>5</v>
-      </c>
-      <c r="M9" s="30">
-        <v>3</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31">
+        <v>4</v>
+      </c>
       <c r="O9" s="32"/>
-      <c r="P9" s="30">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31">
+        <v>7</v>
+      </c>
       <c r="R9" s="32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
+      <c r="T9" s="31">
+        <v>1</v>
+      </c>
       <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
@@ -3183,20 +4105,24 @@
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
-        <v>1</v>
-      </c>
-      <c r="J10" s="23">
-        <v>8</v>
-      </c>
-      <c r="K10" s="24"/>
+      <c r="G10" s="23">
+        <v>2</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24">
+        <v>5</v>
+      </c>
       <c r="L10" s="25"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
+      <c r="N10" s="24">
+        <v>8</v>
+      </c>
       <c r="O10" s="25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
@@ -3214,770 +4140,15 @@
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="29">
+        <v>4</v>
+      </c>
       <c r="J11" s="27"/>
-      <c r="K11" s="28">
-        <v>7</v>
-      </c>
-      <c r="L11" s="29">
-        <v>3</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29">
-        <v>8</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31">
-        <v>6</v>
-      </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23">
-        <v>4</v>
-      </c>
-      <c r="E13" s="24">
-        <v>9</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="24">
-        <v>3</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24">
-        <v>9</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="34">
-        <v>8</v>
-      </c>
-      <c r="N13" s="24">
-        <v>4</v>
-      </c>
-      <c r="O13" s="25">
-        <v>5</v>
-      </c>
-      <c r="P13" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>6</v>
-      </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="24">
-        <v>2</v>
-      </c>
-      <c r="U13" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28">
-        <v>5</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="33">
-        <v>8</v>
-      </c>
-      <c r="L14" s="29">
-        <v>6</v>
-      </c>
-      <c r="M14" s="35">
-        <v>2</v>
-      </c>
-      <c r="N14" s="36">
-        <v>9</v>
-      </c>
-      <c r="O14" s="37">
-        <v>3</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29">
-        <v>5</v>
-      </c>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32">
-        <v>1</v>
-      </c>
-      <c r="G15" s="30">
-        <v>9</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="30">
-        <v>3</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="41">
-        <v>6</v>
-      </c>
-      <c r="N15" s="39">
-        <v>7</v>
-      </c>
-      <c r="O15" s="40">
-        <v>1</v>
-      </c>
-      <c r="P15" s="30">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>9</v>
-      </c>
-      <c r="R15" s="32">
-        <v>2</v>
-      </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="23">
-        <v>1</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="23">
-        <v>8</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="23">
-        <v>5</v>
-      </c>
-      <c r="H16" s="24">
-        <v>7</v>
-      </c>
-      <c r="I16" s="25">
-        <v>3</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24">
-        <v>1</v>
-      </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28">
-        <v>6</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28">
-        <v>7</v>
-      </c>
-      <c r="U17" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="30">
-        <v>8</v>
-      </c>
-      <c r="B18" s="31">
-        <v>3</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31">
-        <v>4</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31">
-        <v>9</v>
-      </c>
-      <c r="I18" s="32">
-        <v>1</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
-      <c r="O18" s="32">
-        <v>9</v>
-      </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="30">
-        <v>6</v>
-      </c>
-      <c r="T18" s="31"/>
-      <c r="U18" s="32"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23">
-        <v>7</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25">
-        <v>4</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="23">
-        <v>9</v>
-      </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24">
-        <v>5</v>
-      </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="25"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28">
-        <v>8</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28">
-        <v>5</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27">
-        <v>4</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>3</v>
-      </c>
-      <c r="R20" s="29"/>
-      <c r="S20" s="27">
-        <v>5</v>
-      </c>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29"/>
-    </row>
-    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="30">
-        <v>2</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32">
-        <v>3</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32">
-        <v>2</v>
-      </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32">
-        <v>6</v>
-      </c>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D440AA-EBC6-4059-A3EA-315E48455F03}">
-  <dimension ref="A1:U21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:U21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="21" width="3.46484375" customWidth="1"/>
-    <col min="22" max="22" width="7.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="42"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25">
-        <v>3</v>
-      </c>
-      <c r="D1" s="23">
-        <v>4</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25">
-        <v>5</v>
-      </c>
-      <c r="G1" s="23">
-        <v>1</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="23">
-        <v>8</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25">
-        <v>3</v>
-      </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28">
-        <v>2</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29">
-        <v>9</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27">
-        <v>4</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29">
-        <v>3</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="27">
-        <v>1</v>
-      </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31">
-        <v>4</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31">
-        <v>7</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="31">
-        <v>6</v>
-      </c>
-      <c r="U3" s="32"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="23">
-        <v>6</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24">
-        <v>3</v>
-      </c>
-      <c r="I4" s="25">
-        <v>8</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="23">
-        <v>3</v>
-      </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="23">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="25">
-        <v>1</v>
-      </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28">
-        <v>7</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="27">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29">
-        <v>6</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28">
-        <v>2</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27">
-        <v>1</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="30">
-        <v>2</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32">
-        <v>5</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="30">
-        <v>6</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="30">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="32">
-        <v>8</v>
-      </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24">
-        <v>3</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24">
-        <v>5</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="23">
-        <v>6</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25">
-        <v>1</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24">
-        <v>3</v>
-      </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="24">
-        <v>5</v>
-      </c>
-      <c r="U7" s="25"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="33">
-        <v>4</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28">
-        <v>9</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29">
-        <v>2</v>
-      </c>
-      <c r="M8" s="27">
-        <v>7</v>
-      </c>
-      <c r="N8" s="28">
-        <v>6</v>
-      </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="27">
-        <v>9</v>
-      </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30">
-        <v>7</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32">
-        <v>3</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31">
-        <v>4</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="30">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="32">
-        <v>6</v>
-      </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="23">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="23">
-        <v>1</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25">
-        <v>9</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25">
-        <v>3</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28">
-        <v>2</v>
-      </c>
+      <c r="K11" s="28"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="27"/>
+      <c r="M11" s="27">
+        <v>9</v>
+      </c>
       <c r="N11" s="28"/>
       <c r="O11" s="29"/>
       <c r="P11" s="26"/>
@@ -3997,19 +4168,21 @@
       <c r="G12" s="30">
         <v>6</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="31">
+        <v>3</v>
+      </c>
       <c r="I12" s="32"/>
-      <c r="J12" s="30">
-        <v>5</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32">
-        <v>8</v>
-      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31">
+        <v>4</v>
+      </c>
+      <c r="L12" s="32"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
+      <c r="N12" s="31">
+        <v>1</v>
+      </c>
       <c r="O12" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
@@ -4020,36 +4193,34 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
-      <c r="B13" s="24">
-        <v>2</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25">
+        <v>3</v>
+      </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="24">
-        <v>6</v>
-      </c>
+      <c r="E13" s="24"/>
       <c r="F13" s="25"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="24">
+        <v>7</v>
+      </c>
       <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24">
-        <v>1</v>
-      </c>
-      <c r="L13" s="25"/>
+      <c r="J13" s="23">
+        <v>3</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25">
+        <v>8</v>
+      </c>
       <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
+      <c r="N13" s="24">
+        <v>9</v>
+      </c>
       <c r="O13" s="25"/>
-      <c r="P13" s="23">
-        <v>5</v>
-      </c>
+      <c r="P13" s="23"/>
       <c r="Q13" s="24"/>
-      <c r="R13" s="25">
-        <v>6</v>
-      </c>
-      <c r="S13" s="23">
-        <v>7</v>
-      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="23"/>
       <c r="T13" s="24"/>
       <c r="U13" s="25"/>
     </row>
@@ -4057,295 +4228,289 @@
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28">
-        <v>3</v>
-      </c>
-      <c r="I14" s="29">
-        <v>2</v>
-      </c>
-      <c r="J14" s="27">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="33"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="27"/>
+      <c r="M14" s="27">
+        <v>7</v>
+      </c>
       <c r="N14" s="28">
-        <v>7</v>
-      </c>
-      <c r="O14" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="29">
+        <v>5</v>
+      </c>
       <c r="P14" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S14" s="27"/>
-      <c r="T14" s="28">
-        <v>5</v>
-      </c>
-      <c r="U14" s="29"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="30"/>
+      <c r="A15" s="30">
+        <v>6</v>
+      </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="32">
-        <v>3</v>
-      </c>
+      <c r="C15" s="32"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="31">
+        <v>2</v>
+      </c>
+      <c r="F15" s="32">
+        <v>8</v>
+      </c>
       <c r="G15" s="30"/>
-      <c r="H15" s="31">
-        <v>6</v>
-      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="30">
-        <v>2</v>
-      </c>
+      <c r="J15" s="30"/>
       <c r="K15" s="31"/>
-      <c r="L15" s="32">
-        <v>4</v>
-      </c>
+      <c r="L15" s="32"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="31">
-        <v>8</v>
-      </c>
+      <c r="N15" s="31"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="32"/>
+      <c r="P15" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>4</v>
+      </c>
+      <c r="R15" s="32">
+        <v>2</v>
+      </c>
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="32">
-        <v>6</v>
-      </c>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="23">
-        <v>4</v>
-      </c>
+      <c r="A16" s="23"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
+      <c r="C16" s="25">
+        <v>7</v>
+      </c>
       <c r="D16" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="25">
-        <v>6</v>
-      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="25">
-        <v>3</v>
-      </c>
+      <c r="I16" s="25"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="23"/>
       <c r="N16" s="24">
-        <v>4</v>
-      </c>
-      <c r="O16" s="25"/>
-      <c r="P16" s="23">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25">
-        <v>9</v>
-      </c>
-      <c r="S16" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="O16" s="25">
+        <v>1</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24">
+        <v>6</v>
+      </c>
+      <c r="R16" s="25"/>
+      <c r="S16" s="23">
+        <v>2</v>
+      </c>
       <c r="T16" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U16" s="25"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28">
-        <v>3</v>
-      </c>
+      <c r="A17" s="27">
+        <v>8</v>
+      </c>
+      <c r="B17" s="28"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28">
-        <v>7</v>
-      </c>
-      <c r="F17" s="29"/>
+      <c r="D17" s="27">
+        <v>4</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29">
+        <v>7</v>
+      </c>
       <c r="G17" s="27"/>
-      <c r="H17" s="28">
-        <v>8</v>
-      </c>
-      <c r="I17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29">
+        <v>9</v>
+      </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="27">
+        <v>6</v>
+      </c>
       <c r="N17" s="28"/>
       <c r="O17" s="29"/>
       <c r="P17" s="27"/>
-      <c r="Q17" s="28">
-        <v>2</v>
-      </c>
+      <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
-      <c r="U17" s="29"/>
+      <c r="U17" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="30">
-        <v>8</v>
-      </c>
+      <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="30">
-        <v>4</v>
-      </c>
+      <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="F18" s="32">
-        <v>3</v>
-      </c>
-      <c r="G18" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="30">
+        <v>2</v>
+      </c>
       <c r="H18" s="31"/>
-      <c r="I18" s="32">
-        <v>7</v>
-      </c>
+      <c r="I18" s="32"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="30"/>
       <c r="N18" s="31">
-        <v>5</v>
-      </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="30">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32">
-        <v>1</v>
-      </c>
-      <c r="S18" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="O18" s="32">
+        <v>3</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31">
+        <v>2</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" s="30">
+        <v>7</v>
+      </c>
       <c r="T18" s="31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
+      <c r="A19" s="23">
+        <v>3</v>
+      </c>
       <c r="B19" s="24"/>
-      <c r="C19" s="25">
-        <v>4</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="E19" s="24">
+        <v>4</v>
+      </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="23">
-        <v>2</v>
-      </c>
+      <c r="G19" s="23"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="25">
+        <v>5</v>
+      </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
-      <c r="M19" s="23">
-        <v>8</v>
-      </c>
+      <c r="M19" s="23"/>
       <c r="N19" s="24"/>
       <c r="O19" s="25"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="23">
-        <v>1</v>
-      </c>
+      <c r="P19" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>5</v>
+      </c>
+      <c r="R19" s="25">
+        <v>4</v>
+      </c>
+      <c r="S19" s="23"/>
       <c r="T19" s="24"/>
-      <c r="U19" s="25">
-        <v>9</v>
-      </c>
+      <c r="U19" s="25"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="27"/>
       <c r="B20" s="28"/>
       <c r="C20" s="29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" s="27">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="29"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28">
-        <v>6</v>
-      </c>
+      <c r="M20" s="27">
+        <v>4</v>
+      </c>
+      <c r="N20" s="28"/>
       <c r="O20" s="29"/>
       <c r="P20" s="27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="28"/>
       <c r="R20" s="29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S20" s="27"/>
-      <c r="T20" s="28">
-        <v>3</v>
-      </c>
-      <c r="U20" s="29"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="30"/>
-      <c r="B21" s="31">
-        <v>7</v>
-      </c>
-      <c r="C21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32">
+        <v>9</v>
+      </c>
       <c r="D21" s="30"/>
-      <c r="E21" s="31">
-        <v>4</v>
-      </c>
+      <c r="E21" s="31"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31">
-        <v>9</v>
-      </c>
+      <c r="G21" s="30">
+        <v>6</v>
+      </c>
+      <c r="H21" s="31"/>
       <c r="I21" s="32"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="30"/>
       <c r="N21" s="31"/>
-      <c r="O21" s="32">
-        <v>1</v>
-      </c>
-      <c r="P21" s="30">
-        <v>2</v>
-      </c>
+      <c r="O21" s="32"/>
+      <c r="P21" s="30"/>
       <c r="Q21" s="31"/>
-      <c r="R21" s="32">
-        <v>4</v>
-      </c>
-      <c r="S21" s="30">
-        <v>6</v>
-      </c>
+      <c r="R21" s="32"/>
+      <c r="S21" s="30"/>
       <c r="T21" s="31"/>
       <c r="U21" s="32"/>
     </row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dean\source\repos\Sudoku\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F320BAED-E4F8-42BD-8B1A-34537B6EA589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9345EFF-90AC-419A-9B4F-67F15284E40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58095" yWindow="-4680" windowWidth="24105" windowHeight="14520" firstSheet="1" activeTab="7" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
+    <workbookView xWindow="57480" yWindow="-4875" windowWidth="25440" windowHeight="15390" firstSheet="7" activeTab="15" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Samurai (2)" sheetId="7" r:id="rId13"/>
     <sheet name="Samurai (4)" sheetId="9" r:id="rId14"/>
     <sheet name="Samurai (5)" sheetId="11" r:id="rId15"/>
+    <sheet name="Samurai (6)" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4184,6 +4185,745 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50BF317-EB9D-4DFE-B7AA-07171D6521BD}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="21" width="3.46484375" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="34"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24">
+        <v>9</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="23">
+        <v>5</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="23">
+        <v>1</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24">
+        <v>7</v>
+      </c>
+      <c r="U1" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29">
+        <v>4</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28">
+        <v>8</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29">
+        <v>3</v>
+      </c>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31">
+        <v>7</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32">
+        <v>9</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31">
+        <v>5</v>
+      </c>
+      <c r="U3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25">
+        <v>5</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24">
+        <v>4</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25">
+        <v>5</v>
+      </c>
+      <c r="P4" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25">
+        <v>4</v>
+      </c>
+      <c r="S4" s="23">
+        <v>9</v>
+      </c>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27">
+        <v>8</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>4</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31">
+        <v>2</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32">
+        <v>9</v>
+      </c>
+      <c r="P6" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32">
+        <v>1</v>
+      </c>
+      <c r="S6" s="30">
+        <v>6</v>
+      </c>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24">
+        <v>6</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24">
+        <v>3</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24">
+        <v>2</v>
+      </c>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="27">
+        <v>7</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27">
+        <v>6</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="27">
+        <v>4</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29">
+        <v>9</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29">
+        <v>5</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32">
+        <v>7</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30">
+        <v>3</v>
+      </c>
+      <c r="H9" s="31">
+        <v>9</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31">
+        <v>6</v>
+      </c>
+      <c r="O9" s="32">
+        <v>8</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32">
+        <v>9</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23">
+        <v>8</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25">
+        <v>5</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25">
+        <v>9</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28">
+        <v>3</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28">
+        <v>9</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28">
+        <v>1</v>
+      </c>
+      <c r="O11" s="29"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30">
+        <v>3</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32">
+        <v>6</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="23">
+        <v>9</v>
+      </c>
+      <c r="H13" s="24">
+        <v>8</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24">
+        <v>5</v>
+      </c>
+      <c r="O13" s="25">
+        <v>7</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="23">
+        <v>9</v>
+      </c>
+      <c r="T13" s="24">
+        <v>2</v>
+      </c>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="27">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28">
+        <v>6</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27">
+        <v>9</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="29">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29">
+        <v>6</v>
+      </c>
+      <c r="P14" s="27">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29">
+        <v>9</v>
+      </c>
+      <c r="S14" s="27">
+        <v>3</v>
+      </c>
+      <c r="T14" s="28"/>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31">
+        <v>6</v>
+      </c>
+      <c r="C15" s="32">
+        <v>5</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31">
+        <v>9</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31">
+        <v>2</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31">
+        <v>5</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>4</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23">
+        <v>6</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25">
+        <v>9</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="23">
+        <v>3</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28">
+        <v>8</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28">
+        <v>4</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29">
+        <v>9</v>
+      </c>
+      <c r="P17" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29">
+        <v>8</v>
+      </c>
+      <c r="S17" s="27">
+        <v>2</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29"/>
+    </row>
+    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31">
+        <v>5</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32">
+        <v>2</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
+        <v>3</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="30">
+        <v>2</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>3</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24">
+        <v>7</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>6</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25">
+        <v>2</v>
+      </c>
+      <c r="S19" s="23"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="27">
+        <v>8</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29">
+        <v>7</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29">
+        <v>2</v>
+      </c>
+      <c r="P20" s="27">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29">
+        <v>4</v>
+      </c>
+      <c r="S20" s="27">
+        <v>5</v>
+      </c>
+      <c r="T20" s="28">
+        <v>8</v>
+      </c>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32">
+        <v>9</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="32">
+        <v>5</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="30">
+        <v>4</v>
+      </c>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4466F0C1-66A8-4FD6-9E56-EBC04A3FD144}">
   <dimension ref="A1:I9"/>
@@ -5189,7 +5929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC428E10-B139-4405-8F12-4489DD7D14B1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dean\source\repos\Sudoku\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9345EFF-90AC-419A-9B4F-67F15284E40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2AE0D-5077-483D-89A7-1F7A192D9E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-4875" windowWidth="25440" windowHeight="15390" firstSheet="7" activeTab="15" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
+    <workbookView xWindow="62835" yWindow="-4605" windowWidth="16545" windowHeight="3660" firstSheet="12" activeTab="16" xr2:uid="{1CDF8E94-643E-4348-B7A2-F7C038426B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Samurai (4)" sheetId="9" r:id="rId14"/>
     <sheet name="Samurai (5)" sheetId="11" r:id="rId15"/>
     <sheet name="Samurai (6)" sheetId="18" r:id="rId16"/>
+    <sheet name="Samurai (7)" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4189,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50BF317-EB9D-4DFE-B7AA-07171D6521BD}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:U21"/>
     </sheetView>
   </sheetViews>
@@ -4917,6 +4918,733 @@
       </c>
       <c r="T21" s="31"/>
       <c r="U21" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D64C05-0E74-431D-9BB5-2EAD8B8A297A}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="21" width="3.46484375" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="23">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25">
+        <v>3</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="23">
+        <v>3</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24">
+        <v>4</v>
+      </c>
+      <c r="R1" s="25"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28">
+        <v>1</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30">
+        <v>6</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32">
+        <v>9</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32">
+        <v>9</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23">
+        <v>9</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25">
+        <v>7</v>
+      </c>
+      <c r="G4" s="23">
+        <v>5</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+      <c r="P4" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25">
+        <v>7</v>
+      </c>
+      <c r="S4" s="23">
+        <v>6</v>
+      </c>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="27">
+        <v>9</v>
+      </c>
+      <c r="B5" s="28">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28">
+        <v>8</v>
+      </c>
+      <c r="I5" s="29">
+        <v>4</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27">
+        <v>2</v>
+      </c>
+      <c r="N5" s="28">
+        <v>3</v>
+      </c>
+      <c r="O5" s="29"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28">
+        <v>4</v>
+      </c>
+      <c r="U5" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30">
+        <v>5</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32">
+        <v>4</v>
+      </c>
+      <c r="G6" s="30">
+        <v>6</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32">
+        <v>9</v>
+      </c>
+      <c r="P6" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32">
+        <v>8</v>
+      </c>
+      <c r="S6" s="30">
+        <v>1</v>
+      </c>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23">
+        <v>3</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24">
+        <v>6</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25">
+        <v>1</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="33">
+        <v>2</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28">
+        <v>3</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28">
+        <v>7</v>
+      </c>
+      <c r="R8" s="29"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30">
+        <v>1</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31">
+        <v>9</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30">
+        <v>7</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32">
+        <v>2</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31">
+        <v>3</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
+        <v>7</v>
+      </c>
+      <c r="J10" s="23">
+        <v>5</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23">
+        <v>3</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28">
+        <v>4</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28">
+        <v>9</v>
+      </c>
+      <c r="O11" s="29">
+        <v>1</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32">
+        <v>3</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32">
+        <v>9</v>
+      </c>
+      <c r="M12" s="30">
+        <v>2</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="23">
+        <v>8</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23">
+        <v>8</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25">
+        <v>3</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24">
+        <v>2</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28">
+        <v>7</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="33">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28">
+        <v>1</v>
+      </c>
+      <c r="R14" s="29"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30">
+        <v>8</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32">
+        <v>6</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31">
+        <v>9</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32">
+        <v>9</v>
+      </c>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25">
+        <v>5</v>
+      </c>
+      <c r="D16" s="23">
+        <v>7</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25">
+        <v>9</v>
+      </c>
+      <c r="G16" s="23">
+        <v>4</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25">
+        <v>4</v>
+      </c>
+      <c r="P16" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25">
+        <v>2</v>
+      </c>
+      <c r="S16" s="23">
+        <v>6</v>
+      </c>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="27">
+        <v>2</v>
+      </c>
+      <c r="B17" s="28">
+        <v>7</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28">
+        <v>8</v>
+      </c>
+      <c r="I17" s="29">
+        <v>5</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27">
+        <v>2</v>
+      </c>
+      <c r="N17" s="28">
+        <v>5</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="28">
+        <v>9</v>
+      </c>
+      <c r="U17" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32">
+        <v>9</v>
+      </c>
+      <c r="D18" s="30">
+        <v>2</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
+      <c r="G18" s="30">
+        <v>7</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32">
+        <v>8</v>
+      </c>
+      <c r="P18" s="30">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32">
+        <v>3</v>
+      </c>
+      <c r="S18" s="30">
+        <v>7</v>
+      </c>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="23">
+        <v>4</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25">
+        <v>8</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25">
+        <v>1</v>
+      </c>
+      <c r="S19" s="23"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28">
+        <v>6</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28">
+        <v>9</v>
+      </c>
+      <c r="R20" s="29"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="30">
+        <v>1</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31">
+        <v>3</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32">
+        <v>7</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31">
+        <v>8</v>
+      </c>
+      <c r="R21" s="32"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
